--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1885164.40747276</v>
+        <v>1992755.833546197</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5446730.200814683</v>
+        <v>5861039.970900989</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>245.0700601869129</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -710,13 +712,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.6437749532611</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>43.77283765622035</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>221.165286208262</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.1589972036696</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>242.8243655528871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>27.07950026194673</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>238.2345103199669</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>53.74650527181152</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>139.9514671241872</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>11.70291171695694</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>215.3821362116109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022995</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.55329631630718</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>11.29446919285459</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>17.96377529449187</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,16 +1824,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>187.5234134555188</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>14.14416275345648</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573261</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118557</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.648670739422</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>159.0706943503425</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>245.65583779806</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>30.80549757377439</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>35.34780583513631</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>32.69681262526345</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>56.72042565247789</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3478,16 +3480,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.9514671241869</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695694</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>226.7671148741339</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170489</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>189.9879808696994</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.1507312021315</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>255.7324571798003</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>260.4356504767628</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.959615828829</v>
+        <v>1922.147703832814</v>
       </c>
       <c r="C2" t="n">
-        <v>1233.817143012253</v>
+        <v>1888.045635056641</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.947762227101</v>
+        <v>1452.135850231085</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>1018.361105389381</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>590.4936757985884</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
@@ -4334,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488303</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.341725488303</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.526674939741</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X2" t="n">
-        <v>2350.424615559456</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.259186313737</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
-        <v>2018.283117621067</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621067</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621067</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621067</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>2670.060826431428</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482438</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C4" t="n">
-        <v>749.5747111314687</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262988</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.76646671971</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2480.040423909638</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C5" t="n">
-        <v>2041.897951093061</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
         <v>342.9481604582723</v>
@@ -4565,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2121.064588566195</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2121.064588566195</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1716.209133977229</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1297.06667055654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2649.897996842637</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E7" t="n">
-        <v>281.9633400635787</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4756,19 +4758,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>668.6030377373708</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C8" t="n">
-        <v>427.9621182222527</v>
+        <v>977.375145460345</v>
       </c>
       <c r="D8" t="n">
-        <v>396.0927374371013</v>
+        <v>541.4653606347895</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>107.6906157930846</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4808,16 +4810,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719776</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1922.331195343315</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.188731922625</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1094.902608222279</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4892,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4987,19 +4989,19 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1693.062784852649</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
         <v>1551.697666545389</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>930.1786572989098</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C11" t="n">
-        <v>492.0361844823331</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677763</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677763</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094008</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V11" t="n">
-        <v>2588.76226949382</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W11" t="n">
-        <v>2183.906814904853</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X11" t="n">
-        <v>1764.764351484164</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1356.478227783818</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K12" t="n">
-        <v>484.0630267508877</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L12" t="n">
-        <v>484.0630267508877</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M12" t="n">
-        <v>484.0630267508877</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="N12" t="n">
-        <v>484.0630267508877</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508877</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337088</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.441055452696</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.705114763052</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C14" t="n">
-        <v>1608.296560022795</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.296560022795</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902975</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135613</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L14" t="n">
-        <v>491.3810871096955</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M14" t="n">
-        <v>491.3810871096955</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219836</v>
+        <v>2294.56104900816</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.705114763052</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>596.6048817268487</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O15" t="n">
-        <v>406.7483977834476</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1989.232193689134</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673538</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5591,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937665</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769915</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785142</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292514</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>282.1391483292514</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550791</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127537</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1036.216302815312</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>863.6545912985367</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>697.7765985000594</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>528.0185947507966</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430056</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300487</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886778</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220191</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534299</v>
       </c>
     </row>
     <row r="23">
@@ -6075,16 +6077,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2697.67853298928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2697.67853298928</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2532.087258015108</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W31" t="n">
-        <v>3870.506285125261</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.114530458674</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y31" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6715,7 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3435.538389938438</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>3262.976678421663</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>3097.098685623185</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>2927.340681873923</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F34" t="n">
-        <v>2750.633627835679</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G34" t="n">
-        <v>2585.042352861507</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4372.194838423612</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4100.168434009904</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3854.776679343317</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3627.357008657425</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>238.0943787136899</v>
       </c>
       <c r="K35" t="n">
-        <v>211.240503094076</v>
+        <v>1072.444670671868</v>
       </c>
       <c r="L35" t="n">
-        <v>1286.300469346935</v>
+        <v>2147.504636924727</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557486</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248062</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731287</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.00085993281</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183547</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145303</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171131</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861506</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244352</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.382823542349</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>4512.097012733238</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652941</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7321,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7360,13 +7362,13 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>2005.426305625833</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
         <v>1845.949044954127</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232937</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.44935241636</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D41" t="n">
-        <v>1114.44935241636</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>1114.44935241636</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5819228255682</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>285.1840914488321</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862318</v>
+        <v>2018.811256961189</v>
       </c>
       <c r="N41" t="n">
-        <v>1880.509478614941</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="O41" t="n">
-        <v>1880.509478614941</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127229</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838881</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418191</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717845</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056514</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I42" t="n">
-        <v>82.1900728172352</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1101.31259353607</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1101.31259353607</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.31259353607</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1101.31259353607</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1101.31259353607</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C43" t="n">
-        <v>593.0585255576149</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D43" t="n">
-        <v>427.1805327591376</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E43" t="n">
-        <v>257.4225290098748</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F43" t="n">
-        <v>80.71547497163104</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677761</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1217.590561244703</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>779.4480884281262</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>779.4480884281262</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>345.6733435864214</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963761</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862318</v>
+        <v>1207.785655143939</v>
       </c>
       <c r="N44" t="n">
-        <v>1185.945282862318</v>
+        <v>2333.516638580386</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374606</v>
+        <v>3313.696305150692</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4142.006179984089</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895756</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212773</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.761629146599</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X44" t="n">
-        <v>1217.590561244703</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1217.590561244703</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056514</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I45" t="n">
-        <v>82.1900728172352</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2637.229517630298</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2358.796516883403</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8000,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>658.3613220306675</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8152,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8292,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>667.515206607857</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8456,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>858.5668599893697</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.8392149967</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>677.9686009664961</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>137.205594386778</v>
       </c>
       <c r="K35" t="n">
-        <v>110.0804674982791</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,19 +10597,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>662.0567456881204</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>212.2804580932197</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>505.94019141937</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.34908037598575</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932197</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>411.8858435779274</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>143.6086443539008</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.4665788955563</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>411.4732220987959</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>81.78272691405255</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>124.3589898130727</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>143.6516710866758</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.148518520150049</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>23.65030257151142</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1553467313929</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.3655273957959</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.8858435779274</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.47173813708199</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>35.15749310933342</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>411.8858435779272</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>159.2185816066821</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.65030257151108</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340173.3914852533</v>
+        <v>481970.4755175972</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340173.3914852532</v>
+        <v>481970.4755175972</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>513953.5781101948</v>
+        <v>513953.5781101946</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340173.3914852532</v>
+        <v>481970.4755175972</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340173.3914852531</v>
+        <v>481970.4755175972</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123269</v>
@@ -26320,16 +26322,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908394</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908395</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908395</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.3917505658</v>
+        <v>395257.1767908395</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045618</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260783</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340709</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>122130.8532251353</v>
+      </c>
+      <c r="C4" t="n">
         <v>122130.8532251352</v>
       </c>
-      <c r="C4" t="n">
-        <v>122130.8532251353</v>
-      </c>
       <c r="D4" t="n">
-        <v>122130.8532251353</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343533</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343533</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343533</v>
+        <v>13358.73276318391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915098</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915098</v>
+        <v>71265.27548232878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8874.7795413891</v>
+        <v>8874.779541389027</v>
       </c>
       <c r="C6" t="n">
         <v>232574.478125434</v>
       </c>
       <c r="D6" t="n">
-        <v>232574.4781254338</v>
+        <v>232574.4781254339</v>
       </c>
       <c r="E6" t="n">
-        <v>216715.7758026153</v>
+        <v>159967.4149735787</v>
       </c>
       <c r="F6" t="n">
-        <v>226886.7724030715</v>
+        <v>310633.1685453268</v>
       </c>
       <c r="G6" t="n">
-        <v>171463.1461874876</v>
+        <v>300432.8139609889</v>
       </c>
       <c r="H6" t="n">
-        <v>329522.6231335967</v>
+        <v>329522.6231335968</v>
       </c>
       <c r="I6" t="n">
         <v>329522.6231335967</v>
@@ -26552,16 +26554,16 @@
         <v>329522.6231335967</v>
       </c>
       <c r="M6" t="n">
-        <v>321033.541430256</v>
+        <v>203771.5347979059</v>
       </c>
       <c r="N6" t="n">
         <v>329522.6231335967</v>
       </c>
       <c r="O6" t="n">
-        <v>226886.7724030715</v>
+        <v>310633.1685453268</v>
       </c>
       <c r="P6" t="n">
-        <v>226886.7724030713</v>
+        <v>310633.1685453268</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097202</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097202</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186343</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186317</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186343</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>152.3137928760559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.559487510082</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.4463752142722</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.48338453116375</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.8775775763891</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>13.80571410326618</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>195.526537768444</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34702,13 +34704,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>658.3613220306675</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>667.515206607857</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>858.5668599893697</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.8392149967</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>677.9686009664961</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>137.205594386778</v>
       </c>
       <c r="K35" t="n">
-        <v>110.0804674982791</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>662.0567456881204</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>212.2804580932197</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>505.94019141937</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.34908037598575</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932197</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992755.833546197</v>
+        <v>1992149.745917299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797159</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>245.0700601869129</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>30.15774997692665</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -867,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>221.165286208262</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454842</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -907,16 +907,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>242.8243655528871</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>27.07950026194673</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>16.05512456153223</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>53.74650527181152</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>11.70291171695694</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022995</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292207</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1615,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>17.96377529449187</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742578</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1818,7 +1818,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>81.01098805494614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>81.49380289235407</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>14.14416275345648</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573261</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>31.28831241118557</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.648670739422</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>159.0706943503425</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2769,16 +2769,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>30.80549757377439</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>57.17380082342394</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3009,16 +3009,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.1591039832982</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3195,16 +3195,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>32.69681262526345</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,13 +3483,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9514671241869</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>78.47678022721453</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3714,13 +3714,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>140.4342819615944</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>11.70291171695694</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>331.7628536195701</v>
       </c>
     </row>
     <row r="42">
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.9879808696994</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.1507312021315</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>233.3437899987995</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>260.4356504767628</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.147703832814</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1888.045635056641</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>1452.135850231085</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>1018.361105389381</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>590.4936757985884</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4342,40 +4342,40 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1462.721985931055</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.569699866108</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W2" t="n">
-        <v>1963.754649317545</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X2" t="n">
-        <v>1948.65258993726</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1944.406870277317</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7523231022661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>783.1906115854911</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1620.382367173733</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1374.990612507145</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1147.570941821253</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.5213804116893</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>832.4193116355167</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>800.5499308503653</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2121.064588566195</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2121.064588566195</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1716.209133977229</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1297.06667055654</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1292.820950896597</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1019.910233398507</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>847.3485218817324</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>681.4705290832551</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>511.7125253339923</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>335.0054712957485</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>169.4141963215762</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2653.843528894527</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013252</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1956.566681883682</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1684.540277469974</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1439.148522803386</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>1211.728852117495</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276922</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>977.375145460345</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347895</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>107.6906157930846</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4807,49 +4807,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055492</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238915</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716547</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
         <v>784.7148746252335</v>
@@ -5035,10 +5035,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999559</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316575</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250402</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661435</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240746</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5229,22 +5229,22 @@
         <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055492</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238915</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.31074241336</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885367</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2294.56104900816</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999559</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316575</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250402</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661435</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240746</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>596.6048817268487</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5418,13 +5418,13 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
@@ -5433,7 +5433,7 @@
         <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5466,19 +5466,19 @@
         <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2251.337518478127</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1964.382010348558</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1692.355605934849</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.646878649722</v>
+        <v>1446.963851268262</v>
       </c>
       <c r="Y16" t="n">
         <v>1364.646878649722</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5551,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937665</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769915</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8971520785142</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292514</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>282.1391483292514</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>116.5478733550791</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5685,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755406</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878941</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127537</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1036.216302815312</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>863.6545912985367</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>697.7765985000594</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>528.0185947507966</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430056</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300487</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886778</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.454592220191</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1228.034921534299</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6417,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1423.850236249296</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6657,16 +6657,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.948813008508</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1741.922408594799</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X31" t="n">
-        <v>1496.530653928212</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>238.0943787136899</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1072.444670671868</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2147.504636924727</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1872.583694701248</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.55729028754</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7362,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2396.408450114731</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055492</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238915</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716547</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
         <v>784.7148746252335</v>
@@ -7405,10 +7405,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2018.811256961189</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>3144.542240397636</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999559</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316575</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250402</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661435</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240746</v>
+        <v>3281.822870739892</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7493,19 +7493,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1084.16831070541</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C43" t="n">
-        <v>911.6065991886354</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>745.7286063901581</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>575.9706026408953</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
-        <v>399.2635486026515</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>233.6722736284792</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1467.893980807932</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.986929424398</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2466.979950121664</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>2028.837477305088</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1592.927692479532</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>1159.152947637827</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>731.2855180470351</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>329.887686670299</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885367</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>1207.785655143939</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580386</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150692</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984089</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316575</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250402</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661435</v>
+        <v>3720.708107727608</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240746</v>
+        <v>3301.565644306919</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2893.279520606572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886354</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901581</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408953</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026515</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284792</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2283.891072803477</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>2020.824759190585</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.798354776877</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.406600110289</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424398</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761413</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>389.5575801148034</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>858.5668599893697</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>507.9139216242374</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9181,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>137.205594386778</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,7 +10594,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>662.0567456881204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>39.34908037598575</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>411.8858435779274</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>411.4732220987959</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.83163548871096</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>143.6516710866787</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>124.3589898130727</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>102.9863699957308</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6516710866758</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.148518520150049</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.8858435779274</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>72.44040884377296</v>
       </c>
     </row>
     <row r="42">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.15749310933342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>411.8858435779272</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>52.89506301241641</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.65030257151108</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481970.4755175972</v>
+        <v>481970.475517597</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>513953.5781101946</v>
+        <v>513953.5781101948</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>513953.5781101948</v>
+        <v>513953.5781101946</v>
       </c>
     </row>
     <row r="14">
@@ -26316,22 +26316,22 @@
         <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
+        <v>428917.8559123268</v>
+      </c>
+      <c r="D2" t="n">
         <v>428917.8559123269</v>
-      </c>
-      <c r="D2" t="n">
-        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
         <v>395257.1767908394</v>
       </c>
       <c r="F2" t="n">
-        <v>395257.1767908395</v>
+        <v>395257.1767908393</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26352,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>395257.1767908395</v>
+        <v>395257.1767908394</v>
       </c>
       <c r="P2" t="n">
-        <v>395257.1767908395</v>
+        <v>395257.1767908393</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260783</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="F4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26456,7 +26456,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="P4" t="n">
         <v>13358.73276318391</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8874.779541389027</v>
+        <v>8874.779541388969</v>
       </c>
       <c r="C6" t="n">
+        <v>232574.4781254339</v>
+      </c>
+      <c r="D6" t="n">
         <v>232574.478125434</v>
       </c>
-      <c r="D6" t="n">
-        <v>232574.4781254339</v>
-      </c>
       <c r="E6" t="n">
-        <v>159967.4149735787</v>
+        <v>159862.2253513242</v>
       </c>
       <c r="F6" t="n">
-        <v>310633.1685453268</v>
+        <v>310527.978923072</v>
       </c>
       <c r="G6" t="n">
-        <v>300432.8139609889</v>
+        <v>300409.5896216062</v>
       </c>
       <c r="H6" t="n">
-        <v>329522.6231335968</v>
+        <v>329499.398794214</v>
       </c>
       <c r="I6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.398794214</v>
       </c>
       <c r="J6" t="n">
-        <v>154871.2744158906</v>
+        <v>154848.0500765079</v>
       </c>
       <c r="K6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.398794214</v>
       </c>
       <c r="L6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.3987942141</v>
       </c>
       <c r="M6" t="n">
-        <v>203771.5347979059</v>
+        <v>203748.3104585234</v>
       </c>
       <c r="N6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.398794214</v>
       </c>
       <c r="O6" t="n">
-        <v>310633.1685453268</v>
+        <v>310527.9789230721</v>
       </c>
       <c r="P6" t="n">
-        <v>310633.1685453268</v>
+        <v>310527.978923072</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>152.3137928760559</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>226.4723296792266</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.48338453116375</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.7661826744375</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>13.80571410326618</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>111.4236523045825</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5.148518520149608</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.14502017843148</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34722,7 +34722,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761413</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>389.5575801148034</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>858.5668599893697</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>507.9139216242374</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35901,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,17 +36670,17 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37083,7 +37083,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>137.205594386778</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>662.0567456881204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>39.34908037598575</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
